--- a/xlsx/nor_oda_hum_geo_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_geo_tenyear.xlsx
@@ -1192,7 +1192,7 @@
         <v>2014</v>
       </c>
       <c r="C62">
-        <v>0.9115252120086681</v>
+        <v>0.911525228329493</v>
       </c>
     </row>
     <row r="63">
@@ -1205,7 +1205,7 @@
         <v>2015</v>
       </c>
       <c r="C63">
-        <v>1.097679191517659</v>
+        <v>1.097679192626875</v>
       </c>
     </row>
     <row r="64">
@@ -1218,7 +1218,7 @@
         <v>2016</v>
       </c>
       <c r="C64">
-        <v>1.28430812317394</v>
+        <v>1.284308120980772</v>
       </c>
     </row>
     <row r="65">
@@ -1231,7 +1231,7 @@
         <v>2017</v>
       </c>
       <c r="C65">
-        <v>1.293211491719622</v>
+        <v>1.293211476697314</v>
       </c>
     </row>
     <row r="66">
@@ -1244,7 +1244,7 @@
         <v>2018</v>
       </c>
       <c r="C66">
-        <v>1.466173844402598</v>
+        <v>1.466173807921144</v>
       </c>
     </row>
     <row r="67">
@@ -1257,7 +1257,7 @@
         <v>2019</v>
       </c>
       <c r="C67">
-        <v>1.516911334336827</v>
+        <v>1.516911319923368</v>
       </c>
     </row>
     <row r="68">
@@ -1270,7 +1270,7 @@
         <v>2020</v>
       </c>
       <c r="C68">
-        <v>1.527664629283016</v>
+        <v>1.527664643031689</v>
       </c>
     </row>
     <row r="69">
@@ -1283,7 +1283,7 @@
         <v>2021</v>
       </c>
       <c r="C69">
-        <v>2.294128223927679</v>
+        <v>2.294128230814659</v>
       </c>
     </row>
     <row r="70">
@@ -1296,7 +1296,7 @@
         <v>2022</v>
       </c>
       <c r="C70">
-        <v>2.138742200287144</v>
+        <v>2.138742212835601</v>
       </c>
     </row>
     <row r="71">
@@ -1309,7 +1309,7 @@
         <v>2023</v>
       </c>
       <c r="C71">
-        <v>2.321038823261397</v>
+        <v>2.213206507212393</v>
       </c>
     </row>
     <row r="72">

--- a/xlsx/nor_oda_hum_geo_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_geo_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata viser data for Geografisk fordeling av bistand til nødhjelp, per region, 2014-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfanene Figurdata viser data for Geografisk fordeling av bistand til nødhjelp, per region, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -409,10 +409,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C2">
-        <v>1.167960377391</v>
+        <v>0.784802223677</v>
       </c>
     </row>
     <row r="3">
@@ -422,10 +422,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C3">
-        <v>0.784802223677</v>
+        <v>0.862482488654</v>
       </c>
     </row>
     <row r="4">
@@ -435,10 +435,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C4">
-        <v>0.862482488654</v>
+        <v>1.186247381292</v>
       </c>
     </row>
     <row r="5">
@@ -448,10 +448,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C5">
-        <v>1.186247381292</v>
+        <v>0.941807149167</v>
       </c>
     </row>
     <row r="6">
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C6">
-        <v>0.941807149167</v>
+        <v>0.998699897156</v>
       </c>
     </row>
     <row r="7">
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C7">
-        <v>0.998699897156</v>
+        <v>1.303084882687</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C8">
-        <v>1.303084882687</v>
+        <v>1.252929323434</v>
       </c>
     </row>
     <row r="9">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C9">
-        <v>1.252929323434</v>
+        <v>1.310300445589</v>
       </c>
     </row>
     <row r="10">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C10">
-        <v>1.310300445589</v>
+        <v>2.261663519262</v>
       </c>
     </row>
     <row r="11">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C11">
-        <v>2.261663519262</v>
+        <v>1.414358408688</v>
       </c>
     </row>
     <row r="12">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C12">
-        <v>0.046371883964</v>
+        <v>0.038448423262</v>
       </c>
     </row>
     <row r="13">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C13">
-        <v>0.038448423262</v>
+        <v>0.050344050559</v>
       </c>
     </row>
     <row r="14">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C14">
-        <v>0.050344050559</v>
+        <v>0.045504981345</v>
       </c>
     </row>
     <row r="15">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C15">
-        <v>0.045504981345</v>
+        <v>0.07712313542900001</v>
       </c>
     </row>
     <row r="16">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C16">
-        <v>0.07712313542900001</v>
+        <v>0.09668</v>
       </c>
     </row>
     <row r="17">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C17">
-        <v>0.09668</v>
+        <v>0.116769332992</v>
       </c>
     </row>
     <row r="18">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C18">
-        <v>0.116769332992</v>
+        <v>0.127595590994</v>
       </c>
     </row>
     <row r="19">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C19">
-        <v>0.127595590994</v>
+        <v>0.125264846926</v>
       </c>
     </row>
     <row r="20">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C20">
-        <v>0.125264846926</v>
+        <v>0.214240184855</v>
       </c>
     </row>
     <row r="21">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C21">
-        <v>0.214240184855</v>
+        <v>0.112509064979</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C22">
-        <v>0.3448175140950001</v>
+        <v>0.363169436938</v>
       </c>
     </row>
     <row r="23">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C23">
-        <v>0.363169436938</v>
+        <v>0.335341204136</v>
       </c>
     </row>
     <row r="24">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C24">
-        <v>0.335341204136</v>
+        <v>0.322942795452</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.322942795452</v>
+        <v>0.401230627204</v>
       </c>
     </row>
     <row r="26">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>0.401230627204</v>
+        <v>0.256053900669</v>
       </c>
     </row>
     <row r="27">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C27">
-        <v>0.256053900669</v>
+        <v>0.330665174279</v>
       </c>
     </row>
     <row r="28">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C28">
-        <v>0.330665174279</v>
+        <v>0.53002892019</v>
       </c>
     </row>
     <row r="29">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C29">
-        <v>0.53002892019</v>
+        <v>0.446052284226</v>
       </c>
     </row>
     <row r="30">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C30">
-        <v>0.446052284226</v>
+        <v>0.7038497509839999</v>
       </c>
     </row>
     <row r="31">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C31">
-        <v>0.7038497509839999</v>
+        <v>0.316137418571</v>
       </c>
     </row>
     <row r="32">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C32">
-        <v>0.12622138015</v>
+        <v>0.11320385595</v>
       </c>
     </row>
     <row r="33">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C33">
-        <v>0.11320385595</v>
+        <v>0.092933984269</v>
       </c>
     </row>
     <row r="34">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C34">
-        <v>0.092933984269</v>
+        <v>0.116327105999</v>
       </c>
     </row>
     <row r="35">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C35">
-        <v>0.116327105999</v>
+        <v>0.08830657145000001</v>
       </c>
     </row>
     <row r="36">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36">
-        <v>0.08830657145000001</v>
+        <v>0.09221787738999999</v>
       </c>
     </row>
     <row r="37">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C37">
-        <v>0.09221787738999999</v>
+        <v>0.07354556557</v>
       </c>
     </row>
     <row r="38">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.07354556557</v>
+        <v>0.054972181</v>
       </c>
     </row>
     <row r="39">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.054972181</v>
+        <v>1.83279349772</v>
       </c>
     </row>
     <row r="40">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C40">
-        <v>1.83279349772</v>
+        <v>2.663392260198</v>
       </c>
     </row>
     <row r="41">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C41">
-        <v>2.663392260198</v>
+        <v>2.771634309</v>
       </c>
     </row>
     <row r="42">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C42">
-        <v>0.476379525248</v>
+        <v>0.5509633927250001</v>
       </c>
     </row>
     <row r="43">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C43">
-        <v>0.5509633927250001</v>
+        <v>0.49259602921</v>
       </c>
     </row>
     <row r="44">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C44">
-        <v>0.49259602921</v>
+        <v>0.430647621245</v>
       </c>
     </row>
     <row r="45">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C45">
-        <v>0.430647621245</v>
+        <v>0.456945253877</v>
       </c>
     </row>
     <row r="46">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C46">
-        <v>0.456945253877</v>
+        <v>0.7430942742810001</v>
       </c>
     </row>
     <row r="47">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C47">
-        <v>0.7430942742810001</v>
+        <v>0.823761846324</v>
       </c>
     </row>
     <row r="48">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C48">
-        <v>0.823761846324</v>
+        <v>1.067300664881</v>
       </c>
     </row>
     <row r="49">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B49">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C49">
-        <v>1.067300664881</v>
+        <v>1.11561153698</v>
       </c>
     </row>
     <row r="50">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C50">
-        <v>1.11561153698</v>
+        <v>1.793699488855</v>
       </c>
     </row>
     <row r="51">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C51">
-        <v>1.793699488855</v>
+        <v>1.530593277036</v>
       </c>
     </row>
     <row r="52">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C52">
-        <v>0.667957907084</v>
+        <v>1.366186341314</v>
       </c>
     </row>
     <row r="53">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C53">
-        <v>1.366186341314</v>
+        <v>2.033869350485</v>
       </c>
     </row>
     <row r="54">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C54">
-        <v>2.033869350485</v>
+        <v>2.442645710545</v>
       </c>
     </row>
     <row r="55">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B55">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C55">
-        <v>2.442645710545</v>
+        <v>2.32425516572</v>
       </c>
     </row>
     <row r="56">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C56">
-        <v>2.32425516572</v>
+        <v>2.464997968789</v>
       </c>
     </row>
     <row r="57">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C57">
-        <v>2.464997968789</v>
+        <v>1.783597914289</v>
       </c>
     </row>
     <row r="58">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58">
-        <v>1.783597914289</v>
+        <v>1.54508143926</v>
       </c>
     </row>
     <row r="59">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C59">
-        <v>1.54508143926</v>
+        <v>1.491396084215</v>
       </c>
     </row>
     <row r="60">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C60">
-        <v>1.491396084215</v>
+        <v>2.363273817923</v>
       </c>
     </row>
     <row r="61">
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B61">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C61">
-        <v>2.363273817923</v>
+        <v>1.889653843078</v>
       </c>
     </row>
     <row r="62">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C62">
-        <v>0.911525228329493</v>
+        <v>1.097679192626875</v>
       </c>
     </row>
     <row r="63">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C63">
-        <v>1.097679192626875</v>
+        <v>1.284308120980772</v>
       </c>
     </row>
     <row r="64">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C64">
-        <v>1.284308120980772</v>
+        <v>1.293211476697314</v>
       </c>
     </row>
     <row r="65">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C65">
-        <v>1.293211476697314</v>
+        <v>1.466173807921144</v>
       </c>
     </row>
     <row r="66">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C66">
-        <v>1.466173807921144</v>
+        <v>1.516911319923368</v>
       </c>
     </row>
     <row r="67">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C67">
-        <v>1.516911319923368</v>
+        <v>1.527664643031689</v>
       </c>
     </row>
     <row r="68">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C68">
-        <v>1.527664643031689</v>
+        <v>2.294128230814659</v>
       </c>
     </row>
     <row r="69">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C69">
-        <v>2.294128230814659</v>
+        <v>2.138742212835601</v>
       </c>
     </row>
     <row r="70">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C70">
-        <v>2.138742212835601</v>
+        <v>2.213206507212393</v>
       </c>
     </row>
     <row r="71">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C71">
-        <v>2.213206507212393</v>
+        <v>2.13600706971608</v>
       </c>
     </row>
     <row r="72">

--- a/xlsx/nor_oda_hum_geo_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_geo_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata viser data for Geografisk fordeling av bistand til nødhjelp, per region, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfanene Figurdata viser data for Geografisk fordeling av bistand til nøhjelp, per region, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_hum_geo_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_geo_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata viser data for Geografisk fordeling av bistand til nøhjelp, per region, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfanene Figurdata inneholder data om geografisk fordeling av norsk bistand til nødhjelp, per region. 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
